--- a/biology/Biochimie/Dégradation_de_Wohl/Dégradation_de_Wohl.xlsx
+++ b/biology/Biochimie/Dégradation_de_Wohl/Dégradation_de_Wohl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9gradation_de_Wohl</t>
+          <t>Dégradation_de_Wohl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dégradation de Wohl est une réaction de réduction de la longueur de la chaîne carbonée des aldoses[1], dont l'exemple le plus classique est la conversion du glucose en arabinose présentée ci-dessous. Cette réaction est nommée d'après le chimiste allemand Alfred Wohl.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dégradation de Wohl est une réaction de réduction de la longueur de la chaîne carbonée des aldoses, dont l'exemple le plus classique est la conversion du glucose en arabinose présentée ci-dessous. Cette réaction est nommée d'après le chimiste allemand Alfred Wohl.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9gradation_de_Wohl</t>
+          <t>Dégradation_de_Wohl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la première étape[2],[3], le  D-glucose (1) est converti en  oxime de glucose (2) par réaction avec l'hydroxylamine et le méthanolate de sodium. Dans une deuxième étape, l'oxyme est mis à réagir avec l'anhydride acétique dans l'acétate de sodium avec chauffage. Cela produit une acétylation de tous les groupes alcools (estérification) ainsi que du groupe oxyme (3), produisant un composé instable ; finalement, l'acétate d'oxime se convertit en un nitrile, le glycononitrile de pentaacétyle (4). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la première étape le  D-glucose (1) est converti en  oxime de glucose (2) par réaction avec l'hydroxylamine et le méthanolate de sodium. Dans une deuxième étape, l'oxyme est mis à réagir avec l'anhydride acétique dans l'acétate de sodium avec chauffage. Cela produit une acétylation de tous les groupes alcools (estérification) ainsi que du groupe oxyme (3), produisant un composé instable ; finalement, l'acétate d'oxime se convertit en un nitrile, le glycononitrile de pentaacétyle (4). 
 Dans la dernière étape, le composé est mis à réagir avec le méthanolate de sodium dans le méthanol, provoquant la saponification de tous les groupes acétate (5) ainsi que le départ du groupe nitrile avec formation d'un groupe formyle.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9gradation_de_Wohl</t>
+          <t>Dégradation_de_Wohl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Dégradation de Ruff-Fenton</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dégradation de Ruff-Fenton (Otto Ruff 1898, O. Fenton 1893)  est une variation de la dégradation de Wohl qui convertit un aldose dans un premier temps en acide alpha-hydroxylé par réaction avec le dibrome et l'hydroxyde de calcium, puis cet acide est raccourci par réaction avec le sulfate de fer(III) et le peroxyde d'hydrogène[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dégradation de Ruff-Fenton (Otto Ruff 1898, O. Fenton 1893)  est une variation de la dégradation de Wohl qui convertit un aldose dans un premier temps en acide alpha-hydroxylé par réaction avec le dibrome et l'hydroxyde de calcium, puis cet acide est raccourci par réaction avec le sulfate de fer(III) et le peroxyde d'hydrogène.
 </t>
         </is>
       </c>
